--- a/biology/Zoologie/Deinopidae/Deinopidae.xlsx
+++ b/biology/Zoologie/Deinopidae/Deinopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Deinopidae sont une famille d'araignées aranéomorphes[1].
-Elle a parfois été écrite Dinopidae par erreur. Ces araignées tissent une toile entre leurs pattes, filet qu'elles déploient très rapidement quand une proie passe à portée, pour l'envelopper à la manière d'un gladiateur rétiaire, d'où le nom araignées-gladiateurs ou rétiaires[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Deinopidae sont une famille d'araignées aranéomorphes.
+Elle a parfois été écrite Dinopidae par erreur. Ces araignées tissent une toile entre leurs pattes, filet qu'elles déploient très rapidement quand une proie passe à portée, pour l'envelopper à la manière d'un gladiateur rétiaire, d'où le nom araignées-gladiateurs ou rétiaires.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, dans le sud de l'Asie, en Afrique et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, dans le sud de l'Asie, en Afrique et en Océanie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées au corps allongé. Le nom de la famille provient du grec deinos, « terrible », et opsis, « apparence », faisant allusion aux yeux médians postérieurs très larges et protubérants du taxon.
 </t>
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 16/01/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 16/01/2024) :
 Asianopis Lin &amp; Li, 2020
 Deinopis MacLeay, 1839
 Menneus Simon, 1877
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Deinopoides Wunderlich, 2017</t>
         </is>
       </c>
@@ -640,11 +660,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par C. L. Koch en 1850.
-Cette famille rassemble 68 espèces dans trois genres actuels[1].
-Cette famille a été révisée par Coddington, Kuntner et Opell en 2012[4].
+Cette famille rassemble 68 espèces dans trois genres actuels.
+Cette famille a été révisée par Coddington, Kuntner et Opell en 2012.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>C. L. Koch, 1850 : Übersicht des Arachnidensystems. Nürnberg, vol. 5, p. 1-77 (texte intégral).</t>
         </is>
